--- a/results/Results_PSO_PID_Test_2.xlsx
+++ b/results/Results_PSO_PID_Test_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:AP6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,37 +446,202 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SettlingTime</t>
+          <t>SettlingTime_z</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Overshoot</t>
+          <t>SettlingTime_phi</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>RiseTime</t>
+          <t>SettlingTime_theta</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>SteadyError</t>
+          <t>SettlingTime_psi</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ITSE</t>
+          <t>Overshoot_z</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>IAE</t>
+          <t>Overshoot_phi</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>RMSE</t>
+          <t>Overshoot_theta</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Overshoot_psi</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>RiseTime_z</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>RiseTime_phi</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>RiseTime_theta</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>RiseTime_psi</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>SteadyError_z</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>SteadyError_phi</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>SteadyError_theta</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>SteadyError_psi</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>ITSE_z</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>ITSE_phi</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>ITSE_theta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>ITSE_psi</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>IAE_z</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>IAE_phi</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>IAE_theta</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>IAE_psi</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_z</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_phi</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_theta</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_psi</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Kp_z</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Ki_z</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Kd_z</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Kp_phi</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Ki_phi</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Kd_phi</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Kp_theta</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Ki_theta</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Kd_theta</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Kp_psi</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Ki_psi</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Kd_psi</t>
         </is>
       </c>
     </row>
@@ -485,28 +650,125 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04424983876883769</v>
+        <v>0.2219715473095359</v>
       </c>
       <c r="C2" t="n">
-        <v>1.082164328657315</v>
+        <v>1.122244488977956</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5654609783034708</v>
+        <v>2.024048096192385</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7014028056112225</v>
+        <v>1.102204408817635</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02612955161789957</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.192801935594349</v>
+        <v>0.8579775503313828</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9317318231830437</v>
+        <v>71.11219572655541</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2756403012644555</v>
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.7414829659318638</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.1803607214428858</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>0.01747496480470927</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.093198801033091e-06</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.310785528042425e-06</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.1876001375731024</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.002355014462499101</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.001864587479468114</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.8970988545415455</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.07515640190666921</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.06061819132323338</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.2798259859331966</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.02028601419966564</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.02095063462149774</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>10.68739060920879</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.9721995810801635</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>5.765592299108553</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.07559961533193171</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>5.329199007886577</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.06090117726519798</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1.039316227783671</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.774130859762218</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.04199050071675295</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.357823694388064</v>
       </c>
     </row>
     <row r="3">
@@ -514,28 +776,125 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.04039832994482045</v>
+        <v>0.1885336420834574</v>
       </c>
       <c r="C3" t="n">
-        <v>1.042084168336673</v>
+        <v>2.304609218436874</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1700022458460608</v>
+        <v>0.4208416833667334</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7014028056112225</v>
+        <v>1.482965931863727</v>
       </c>
       <c r="F3" t="n">
-        <v>0.008939983428265496</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1647628357713283</v>
+        <v>6.128365177377448</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7966746814096769</v>
+        <v>1.738263664527187</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2748943838502653</v>
+        <v>100</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5210420841683366</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.3006012024048096</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>0.00201987350882519</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.00113816416431382</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>8.505897154573172e-07</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.1213616616061712</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.0001711555127928453</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.002292866352369872</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.7006485161140783</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.02964032068200255</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.07003167082060768</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.2513037262321132</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.01163407253541295</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.02189468646929476</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>14.82569801454046</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.987995200395081</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>8.344181528278781</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1.566173725148887</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>5.970499293370897</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1.662700196739728</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.009908833650308145</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.5518434902378656</v>
       </c>
     </row>
     <row r="4">
@@ -543,28 +902,125 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.04458083398837043</v>
+        <v>0.1932110238964816</v>
       </c>
       <c r="C4" t="n">
-        <v>1.042084168336673</v>
+        <v>2.224448897795591</v>
       </c>
       <c r="D4" t="n">
-        <v>1.103121217552427</v>
+        <v>0.5210420841683366</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7014028056112225</v>
+        <v>1.743486973947896</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0257265122214317</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.189123816705697</v>
+        <v>6.672796612951422</v>
       </c>
       <c r="H4" t="n">
-        <v>0.925245001879016</v>
+        <v>0.9941657578920737</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2745384013831501</v>
+        <v>100</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.501002004008016</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.3206412825651302</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>0.005372105513492902</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.0009522149258571669</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.673996775948151e-09</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.1227283266745414</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.000155420995370434</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.006836431241531014</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.7289111459381585</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.02842771296339068</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.1119693126346349</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.2496439571555455</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.01158382406149469</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.03161060227492993</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1.017551582063271</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>2.615725630996892</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.04551909762551529</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.8471984485255247</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>8.239290530590884</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.05932537828714161</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -572,28 +1028,125 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.08270912711981181</v>
+        <v>0.1504436064274377</v>
       </c>
       <c r="C5" t="n">
-        <v>2.044088176352705</v>
+        <v>1.142284569138277</v>
       </c>
       <c r="D5" t="n">
-        <v>4.608124564278837</v>
+        <v>0.5210420841683366</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5210420841683366</v>
+        <v>1.643286573146292</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01213743207659405</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1183913181183382</v>
+        <v>0.5086579135918701</v>
       </c>
       <c r="H5" t="n">
-        <v>0.708854286392079</v>
+        <v>0.9960964393748578</v>
       </c>
       <c r="I5" t="n">
-        <v>0.251142521050122</v>
+        <v>100</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.7615230460921842</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.3206412825651302</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>0.02546951729762</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.0009584447827924867</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.875307165175033e-07</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.2047202857005561</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.0001526790283078792</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.002268099966625219</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.9558542350132151</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.02814584171828883</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.0710786229388813</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.2807800910789763</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.0115350951994243</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.02090305886696791</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>10.67345286263127</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.9637868421832302</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>9.99529126137565</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1.96760943743146</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>6.136598231960327</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.09017476436096565</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1.906188633809185</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>9.998275196509599</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.09884296828881602</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
@@ -601,28 +1154,125 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04119500072258828</v>
+        <v>0.21946604080504</v>
       </c>
       <c r="C6" t="n">
-        <v>1.042084168336673</v>
+        <v>1.222444889779559</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1051405727447404</v>
+        <v>1.903807615230461</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6813627254509018</v>
+        <v>1.823647294589178</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02214351963034679</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1775937614833882</v>
+        <v>0.08153679338804842</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8906678908320311</v>
+        <v>54.73870959611806</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2725332588259292</v>
+        <v>100</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.781563126252505</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.1803607214428858</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>0.02361781475224232</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.222184841403991e-05</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.22960959954871e-05</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.2135055787587359</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.001588524838351063</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.001615764964901616</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.9687638371109394</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.06479985896232771</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.06614640131508849</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.2852518503915495</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.01745676673154527</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.02109065423612366</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>10.23026854159817</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.9667129670988631</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>6.927014457496141</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.05984432250178427</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1.896901330242883</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>9.969482321315843</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.9167672276440828</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>9.654173902242293</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.06033078401271805</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
